--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aj14028779\Downloads\Draxlmaier-43296f68446f51f5e2e2f2596cbcd740463221b4\Draxlmaier-43296f68446f51f5e2e2f2596cbcd740463221b4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DF5935-75D1-4E98-B60A-3D13F37E59AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E22E3F-97D3-4327-80C1-560A34BDDF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Amir Jmel</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Perso</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -103,9 +106,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -119,20 +120,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -143,6 +182,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23A19DDA-0129-4F8D-B849-2483A93D1F3F}" name="Table1" displayName="Table1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:F3" xr:uid="{23A19DDA-0129-4F8D-B849-2483A93D1F3F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4489FF91-2F82-47F1-A11F-A26AE3E3E1F9}" name="numdossier"/>
+    <tableColumn id="2" xr3:uid="{550533A0-5398-4418-990B-E19BFD65E960}" name="Matricule"/>
+    <tableColumn id="3" xr3:uid="{3CD08787-AF15-4CC7-9F61-D2D3FCBF5DC7}" name="Nomprenom"/>
+    <tableColumn id="4" xr3:uid="{82161D1B-A4E1-40C2-8BD5-538F87E4C340}" name="datedemande" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C6717957-3F0B-488A-A0F7-88CCE7E3861A}" name="typedecredit"/>
+    <tableColumn id="6" xr3:uid="{0DEF6C9B-DA30-465D-8E28-C96E92C324A0}" name="montantdemande"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,39 +516,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -503,12 +557,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14028779</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>45578</v>
       </c>
       <c r="E2" t="s">
@@ -516,6 +570,26 @@
       </c>
       <c r="F2">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>31411</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -524,6 +598,9 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;9&amp;K000000 Internal</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
